--- a/productImportTemplate.xlsx
+++ b/productImportTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sale\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.gao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16788" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>product_id</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>prices</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>attribute_ids</t>
+  </si>
+  <si>
+    <t>attribute_texts</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>SEO</t>
   </si>
 </sst>
 </file>
@@ -414,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,14 +449,16 @@
     <col min="9" max="9" width="56.6640625" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="26.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
     <col min="14" max="14" width="14.77734375" customWidth="1"/>
     <col min="15" max="15" width="16.5546875" customWidth="1"/>
     <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,37 +466,55 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/productImportTemplate.xlsx
+++ b/productImportTemplate.xlsx
@@ -434,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
@@ -490,19 +490,19 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
